--- a/results/150529-X15-1506-2015-EFC-Women.xlsx
+++ b/results/150529-X15-1506-2015-EFC-Women.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kolja\Desktop\1506 - Rankings\okay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE75E03-BE97-4331-A309-9F4DD652DA0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="X14" sheetId="1" r:id="rId1"/>
@@ -27,13 +28,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>HannemanK001</author>
     <author>Kolja Hannemann</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -101,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -115,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K8" authorId="0" shapeId="0">
+    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -142,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -156,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0" shapeId="0">
+    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -170,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -185,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -200,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -214,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="1" shapeId="0">
+    <comment ref="E16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -250,9 +251,6 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>29.05.-31.05.15</t>
-  </si>
-  <si>
     <t>Place:</t>
   </si>
   <si>
@@ -353,12 +351,15 @@
   </si>
   <si>
     <t>Simon, Ilka</t>
+  </si>
+  <si>
+    <t>29.05.2015-31.05.2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1551,6 +1552,10 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -1584,13 +1589,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1875,17 +1876,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle4">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:U259"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18:Q23"/>
+      <selection activeCell="I4" sqref="I4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
@@ -1915,12 +1916,12 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="109" t="s">
+      <c r="I2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="112"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1936,9 +1937,9 @@
       <c r="I3" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="114"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1951,8 +1952,8 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="114" t="s">
-        <v>5</v>
+      <c r="I4" s="115" t="s">
+        <v>39</v>
       </c>
       <c r="J4" s="105"/>
       <c r="K4" s="105"/>
@@ -1961,7 +1962,7 @@
     </row>
     <row r="5" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1970,7 +1971,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="88"/>
       <c r="K5" s="88"/>
@@ -1979,7 +1980,7 @@
     </row>
     <row r="6" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -1987,12 +1988,12 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="115">
+      <c r="I6" s="116">
         <v>4</v>
       </c>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="118"/>
       <c r="M6" s="1"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
@@ -2000,7 +2001,7 @@
     </row>
     <row r="7" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -2008,7 +2009,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="118">
+      <c r="I7" s="109">
         <v>1.2</v>
       </c>
       <c r="J7" s="88"/>
@@ -2018,7 +2019,7 @@
     </row>
     <row r="8" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -2027,18 +2028,18 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" s="105"/>
       <c r="K8" s="105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" s="106"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -2047,18 +2048,18 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" s="88"/>
       <c r="K9" s="88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" s="89"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -2074,7 +2075,7 @@
     </row>
     <row r="11" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -2092,7 +2093,7 @@
     </row>
     <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -2129,13 +2130,13 @@
     </row>
     <row r="15" spans="1:21" s="15" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -2155,35 +2156,35 @@
     <row r="16" spans="1:21" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="G16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="H16" s="28" t="s">
         <v>23</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>24</v>
       </c>
       <c r="I16" s="29"/>
       <c r="J16" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="L16" s="32" t="s">
         <v>26</v>
-      </c>
-      <c r="L16" s="32" t="s">
-        <v>27</v>
       </c>
       <c r="M16" s="1"/>
       <c r="O16" s="101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P16" s="102"/>
       <c r="Q16" s="103"/>
@@ -2203,13 +2204,13 @@
       <c r="L17" s="40"/>
       <c r="M17" s="1"/>
       <c r="O17" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="P17" s="42" t="s">
+      <c r="Q17" s="43" t="s">
         <v>30</v>
-      </c>
-      <c r="Q17" s="43" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2223,10 +2224,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="46" t="s">
         <v>32</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>33</v>
       </c>
       <c r="G18" s="47">
         <v>98</v>
@@ -2246,7 +2247,7 @@
       </c>
       <c r="M18" s="1"/>
       <c r="O18" s="53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P18" s="54">
         <v>2.5</v>
@@ -2255,7 +2256,7 @@
         <v>150</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2267,10 +2268,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="59">
         <v>36</v>
@@ -2290,7 +2291,7 @@
       </c>
       <c r="M19" s="1"/>
       <c r="O19" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P19" s="65">
         <v>2.5</v>
@@ -2299,7 +2300,7 @@
         <v>150</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2312,36 +2313,36 @@
       </c>
       <c r="E20" s="68"/>
       <c r="F20" s="69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" s="70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" s="71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I20" s="49"/>
       <c r="J20" s="72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K20" s="73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L20" s="74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M20" s="1"/>
       <c r="O20" s="53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P20" s="54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2355,10 +2356,10 @@
         <v>2</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" s="47">
         <v>332</v>
@@ -2378,7 +2379,7 @@
       </c>
       <c r="M21" s="1"/>
       <c r="O21" s="64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P21" s="65">
         <v>0</v>
@@ -2387,7 +2388,7 @@
         <v>120</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2399,10 +2400,10 @@
         <v>2</v>
       </c>
       <c r="E22" s="57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" s="59">
         <v>33</v>
@@ -2422,7 +2423,7 @@
       </c>
       <c r="M22" s="1"/>
       <c r="O22" s="53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P22" s="54">
         <v>0</v>
@@ -2431,7 +2432,7 @@
         <v>120</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2444,36 +2445,36 @@
       </c>
       <c r="E23" s="68"/>
       <c r="F23" s="69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" s="70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I23" s="49"/>
       <c r="J23" s="72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23" s="73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L23" s="74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M23" s="1"/>
       <c r="O23" s="64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P23" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2885,31 +2886,31 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7:L7">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7:L7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Categories</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:L8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:L8" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Open_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:L9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:L9" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Women_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:L10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:L10" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Other_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I15" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Pools</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B15" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>All_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E18:E23">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E18:E23" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>players_sorted2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="F15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="F15" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>Rounds</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>Pools</formula1>
     </dataValidation>
   </dataValidations>
